--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_111__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_111__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5417,10 +5417,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>0.2512299716472626</c:v>
+                  <c:v>0.2512318193912506</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.457803964614868</c:v>
+                  <c:v>1.457802176475525</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>52.52151489257812</c:v>
@@ -5438,37 +5438,37 @@
                   <c:v>0.274055153131485</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2696747183799744</c:v>
+                  <c:v>0.2696784734725952</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.140347480773926</c:v>
+                  <c:v>1.140349268913269</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.992562294006348</c:v>
+                  <c:v>1.992560505867004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.519390940666199</c:v>
+                  <c:v>1.519389152526855</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>52.43857574462891</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2991870939731598</c:v>
+                  <c:v>0.2991889715194702</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.2999125123023987</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.21693801879883</c:v>
+                  <c:v>50.21694183349609</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.07204723358154</c:v>
+                  <c:v>13.07204627990723</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.8583724498748779</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>48.27490615844727</c:v>
+                  <c:v>48.27490997314453</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1.70072066783905</c:v>
@@ -5489,7 +5489,7 @@
                   <c:v>0.2722034156322479</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.33302628993988</c:v>
+                  <c:v>1.333024501800537</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.8102661371231079</c:v>
@@ -5507,37 +5507,37 @@
                   <c:v>48.04727935791016</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.3469018042087555</c:v>
+                  <c:v>0.346905529499054</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.2834052741527557</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32.07392883300781</c:v>
+                  <c:v>32.07392501831055</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.25797176361084</c:v>
+                  <c:v>1.257973551750183</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4052030146121979</c:v>
+                  <c:v>0.4052067399024963</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>54.71443939208984</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.2738929092884064</c:v>
+                  <c:v>0.2738966345787048</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.67455673217773</c:v>
+                  <c:v>12.6745548248291</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>50.87865447998047</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.8128955364227295</c:v>
+                  <c:v>-0.8128917813301086</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45.06540298461914</c:v>
+                  <c:v>45.06539916992188</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.273919016122818</c:v>
@@ -5546,7 +5546,7 @@
                   <c:v>0.917037308216095</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.270073801279068</c:v>
+                  <c:v>0.2700775265693665</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.3981036841869354</c:v>
@@ -5558,55 +5558,55 @@
                   <c:v>9.433679580688477</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.560034394264221</c:v>
+                  <c:v>1.560032486915588</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>52.17807769775391</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.567062854766846</c:v>
+                  <c:v>1.567064642906189</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.8634242415428162</c:v>
+                  <c:v>0.8634279370307922</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.62545907497406</c:v>
+                  <c:v>1.625457286834717</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.5192692875862122</c:v>
+                  <c:v>0.5192673802375793</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.163719058036804</c:v>
+                  <c:v>1.163717150688171</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2692737877368927</c:v>
+                  <c:v>0.2692756652832031</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.962879419326782</c:v>
+                  <c:v>3.962881326675415</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0.4574156105518341</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.3518099784851074</c:v>
+                  <c:v>0.3518137037754059</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1078788414597511</c:v>
+                  <c:v>0.1078769788146019</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.8581784963607788</c:v>
+                  <c:v>0.8581804037094116</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.2738257944583893</c:v>
+                  <c:v>0.2738276422023773</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.704620003700256</c:v>
+                  <c:v>1.704623699188232</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.9669841527938843</c:v>
+                  <c:v>0.9669860601425171</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.5053279995918274</c:v>
+                  <c:v>0.5053242444992065</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0.9959296584129333</c:v>
@@ -5624,13 +5624,13 @@
                   <c:v>0.2692085206508636</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.179004788398743</c:v>
+                  <c:v>1.179008483886719</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>0.4604776203632355</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.652202248573303</c:v>
+                  <c:v>1.65220034122467</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1.379400253295898</c:v>
@@ -5639,19 +5639,19 @@
                   <c:v>53.62708282470703</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>47.75109481811523</c:v>
+                  <c:v>47.75110244750977</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0.4254808723926544</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>40.31867980957031</c:v>
+                  <c:v>40.31868362426758</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.06563360244035721</c:v>
+                  <c:v>-0.06563732773065567</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.2744449079036713</c:v>
+                  <c:v>0.2744467556476593</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0.2694416344165802</c:v>
@@ -5660,7 +5660,7 @@
                   <c:v>0.2718285620212555</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>19.6961498260498</c:v>
+                  <c:v>19.69615173339844</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0.3082966506481171</c:v>
@@ -5678,10 +5678,10 @@
                   <c:v>-0.1248261705040932</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.5184450149536133</c:v>
+                  <c:v>0.5184487700462341</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.3636607825756073</c:v>
+                  <c:v>0.3636645078659058</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.05975760519504547</c:v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2512299716472626</v>
+        <v>0.2512318193912506</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.457803964614868</v>
+        <v>1.457802176475525</v>
       </c>
       <c r="G3">
         <v>72</v>
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2696747183799744</v>
+        <v>0.2696784734725952</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.140347480773926</v>
+        <v>1.140349268913269</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.992562294006348</v>
+        <v>1.992560505867004</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.519390940666199</v>
+        <v>1.519389152526855</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.2991870939731598</v>
+        <v>0.2991889715194702</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>48.8989</v>
       </c>
       <c r="F16">
-        <v>50.21693801879883</v>
+        <v>50.21694183349609</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6751,7 +6751,7 @@
         <v>40.625</v>
       </c>
       <c r="F17">
-        <v>13.07204723358154</v>
+        <v>13.07204627990723</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>44.1708</v>
       </c>
       <c r="F19">
-        <v>48.27490615844727</v>
+        <v>48.27490997314453</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.33302628993988</v>
+        <v>1.333024501800537</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.3469018042087555</v>
+        <v>0.346905529499054</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>32.07392883300781</v>
+        <v>32.07392501831055</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.25797176361084</v>
+        <v>1.257973551750183</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.4052030146121979</v>
+        <v>0.4052067399024963</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.2738929092884064</v>
+        <v>0.2738966345787048</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>45.1545</v>
       </c>
       <c r="F39">
-        <v>12.67455673217773</v>
+        <v>12.6745548248291</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>-0.8128955364227295</v>
+        <v>-0.8128917813301086</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>44.6167</v>
       </c>
       <c r="F42">
-        <v>45.06540298461914</v>
+        <v>45.06539916992188</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.270073801279068</v>
+        <v>0.2700775265693665</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.560034394264221</v>
+        <v>1.560032486915588</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.567062854766846</v>
+        <v>1.567064642906189</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.8634242415428162</v>
+        <v>0.8634279370307922</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.62545907497406</v>
+        <v>1.625457286834717</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.5192692875862122</v>
+        <v>0.5192673802375793</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.163719058036804</v>
+        <v>1.163717150688171</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0.2692737877368927</v>
+        <v>0.2692756652832031</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>3.962879419326782</v>
+        <v>3.962881326675415</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.3518099784851074</v>
+        <v>0.3518137037754059</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.1078788414597511</v>
+        <v>0.1078769788146019</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.8581784963607788</v>
+        <v>0.8581804037094116</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.2738257944583893</v>
+        <v>0.2738276422023773</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.704620003700256</v>
+        <v>1.704623699188232</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.9669841527938843</v>
+        <v>0.9669860601425171</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.5053279995918274</v>
+        <v>0.5053242444992065</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.179004788398743</v>
+        <v>1.179008483886719</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.652202248573303</v>
+        <v>1.65220034122467</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>46.3983</v>
       </c>
       <c r="F76">
-        <v>47.75109481811523</v>
+        <v>47.75110244750977</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>40.31867980957031</v>
+        <v>40.31868362426758</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-0.06563360244035721</v>
+        <v>-0.06563732773065567</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.2744449079036713</v>
+        <v>0.2744467556476593</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>19.6961498260498</v>
+        <v>19.69615173339844</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.5184450149536133</v>
+        <v>0.5184487700462341</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.3636607825756073</v>
+        <v>0.3636645078659058</v>
       </c>
     </row>
     <row r="91" spans="1:6">
